--- a/biology/Zoologie/Agamyxis_pectinifrons/Agamyxis_pectinifrons.xlsx
+++ b/biology/Zoologie/Agamyxis_pectinifrons/Agamyxis_pectinifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agamyxis pectinifrons, le Silure peige[réf. nécessaire], est une espèce sud-américaine de poissons-chats épineux d'eau douce de la famille des Doradidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agamyxis pectinifrons se rencontre dans le bassin de l'Amazone[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agamyxis pectinifrons se rencontre dans le bassin de l'Amazone.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agamyxis pectinifrons mesure jusqu'à 15 cm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agamyxis pectinifrons mesure jusqu'à 15 cm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Agamyxis pectinifrons (Cope, 1870)[2].
-L'espèce a été initialement classée dans le genre Doras sous le protonyme Doras pectinifrons Cope, 1870[2],[3].
-Agamyxis pectinifrons a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Agamyxis pectinifrons (Cope, 1870).
+L'espèce a été initialement classée dans le genre Doras sous le protonyme Doras pectinifrons Cope, 1870,.
+Agamyxis pectinifrons a pour synonymes :
 Doras flavopictus Steindachner, 1908
 Doras pectinifrons Cope, 1870</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) E. D. Cope, « Contribution to the ichthyology of the Marañon », Proceedings of the American Philosophical Society, Philadelphie, APS, vol. 11, no 81,‎ 1870, p. 559-570 (ISSN 0003-049X et 2326-9243, OCLC 1480557, JSTOR 981513, lire en ligne)</t>
         </is>
